--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_Sieve Bootstrap_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_Sieve Bootstrap_Lineal_No_Estacionario_ARIMA.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.1833305278817827</v>
+        <v>0.174354575127975</v>
       </c>
       <c r="D2">
-        <v>0.854560818021745</v>
+        <v>0.8631813351119915</v>
       </c>
       <c r="E2">
         <v>0.6279347033435029</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>1.387482037819268</v>
+        <v>1.252400066521078</v>
       </c>
       <c r="D3">
-        <v>0.1654789457069246</v>
+        <v>0.2235746631123041</v>
       </c>
       <c r="E3">
         <v>0.6279347033435029</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>1.451580996677197</v>
+        <v>1.432129946988115</v>
       </c>
       <c r="D4">
-        <v>0.1468049637328048</v>
+        <v>0.1661625180105408</v>
       </c>
       <c r="E4">
         <v>0.6279347033435029</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>3.775258085168442</v>
+        <v>3.522144700430246</v>
       </c>
       <c r="D5">
-        <v>0.0001654047241068657</v>
+        <v>0.0019193185921349</v>
       </c>
       <c r="E5">
         <v>0.6279347033435029</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>1.205379746529218</v>
+        <v>0.999961515074171</v>
       </c>
       <c r="D6">
-        <v>0.2282265877702274</v>
+        <v>0.3282014713092709</v>
       </c>
       <c r="E6">
         <v>0.6237964652833928</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>1.13106077029264</v>
+        <v>1.047451143027285</v>
       </c>
       <c r="D7">
-        <v>0.25819104375626</v>
+        <v>0.3062635776570526</v>
       </c>
       <c r="E7">
         <v>0.6237964652833928</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>3.307564584042016</v>
+        <v>3.373737535590942</v>
       </c>
       <c r="D8">
-        <v>0.0009609932421814626</v>
+        <v>0.002737499145301081</v>
       </c>
       <c r="E8">
         <v>0.6237964652833928</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.07772385084058167</v>
+        <v>-0.0777454226573738</v>
       </c>
       <c r="D9">
-        <v>0.9380569822069631</v>
+        <v>0.9387333322367319</v>
       </c>
       <c r="E9">
         <v>0.5978814106235749</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>2.759353925000445</v>
+        <v>2.498694673200373</v>
       </c>
       <c r="D10">
-        <v>0.005854465948784471</v>
+        <v>0.02042528367103702</v>
       </c>
       <c r="E10">
         <v>0.5978814106235749</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>2.464441645534686</v>
+        <v>2.687317363402705</v>
       </c>
       <c r="D11">
-        <v>0.01382221320175869</v>
+        <v>0.01345587153332595</v>
       </c>
       <c r="E11">
         <v>0.5992902743829666</v>
